--- a/Logbook in Excel/My_Flying_Logbook.xlsx
+++ b/Logbook in Excel/My_Flying_Logbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/Logbook in Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC87EA3-ADC5-B649-BF01-95032DCBCC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D6CE1-A775-354B-BD24-DC77D814E51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
   <si>
     <t>Month</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Circuits Emergencies</t>
   </si>
   <si>
-    <t>PA-29</t>
-  </si>
-  <si>
-    <t>PA-30</t>
-  </si>
-  <si>
     <t>Date of issue</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
   </si>
   <si>
     <t>LUKE WEIYUE ZHANG, 1010848</t>
+  </si>
+  <si>
+    <t>Pre-solo Check</t>
   </si>
 </sst>
 </file>
@@ -201,7 +198,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -331,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +381,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,39 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,32 +709,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="28"/>
+    <col min="1" max="1" width="14" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>44308</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
-        <v>44308</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +747,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -766,98 +769,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="21" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="21"/>
+      <c r="AB1" s="23"/>
     </row>
     <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="21" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21" t="s">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21" t="s">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -874,8 +877,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -885,9 +888,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -930,8 +933,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
     </row>
     <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1615,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>23</v>
@@ -1663,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>23</v>
@@ -1705,8 +1708,64 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -1721,14 +1780,6 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logbook in Excel/My_Flying_Logbook.xlsx
+++ b/Logbook in Excel/My_Flying_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoren/Documents/PA28/Logbook in Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D6CE1-A775-354B-BD24-DC77D814E51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527F966-8BA1-2A4E-BEDA-E042444F090B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{634C8D91-949A-EA46-A557-4B6714D72E97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
   <si>
     <t>Month</t>
   </si>
@@ -328,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,22 +399,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,6 +413,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +753,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -769,98 +775,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="23" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="23"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="23" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23" t="s">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -877,8 +883,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
@@ -888,9 +894,9 @@
       <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
@@ -933,8 +939,8 @@
       <c r="Z3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
     </row>
     <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1756,16 +1762,56 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:I2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
@@ -1780,6 +1826,14 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
